--- a/Code/Results/Cases/Case_5_98/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_98/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.14654293840696</v>
+        <v>23.15092491234345</v>
       </c>
       <c r="C2">
-        <v>15.44721768289559</v>
+        <v>11.50559536387624</v>
       </c>
       <c r="D2">
-        <v>2.839037149614378</v>
+        <v>3.794202529467003</v>
       </c>
       <c r="E2">
-        <v>6.087854873919337</v>
+        <v>9.520947567715242</v>
       </c>
       <c r="F2">
-        <v>45.05627174287866</v>
+        <v>55.22734134379357</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>30.22782491948123</v>
+        <v>39.01110950967163</v>
       </c>
       <c r="J2">
-        <v>6.019210091341488</v>
+        <v>9.626041788798206</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.052709619775468</v>
+        <v>12.08883899679955</v>
       </c>
       <c r="M2">
-        <v>13.41955496891199</v>
+        <v>20.04156972374729</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.894993404976</v>
+        <v>22.95528901744763</v>
       </c>
       <c r="C3">
-        <v>14.33179110813603</v>
+        <v>11.18283497767065</v>
       </c>
       <c r="D3">
-        <v>2.658134535738749</v>
+        <v>3.750218158558777</v>
       </c>
       <c r="E3">
-        <v>6.035224552138313</v>
+        <v>9.509481565454852</v>
       </c>
       <c r="F3">
-        <v>43.80346342979492</v>
+        <v>55.09400305996552</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>29.68562889675448</v>
+        <v>38.9799580843771</v>
       </c>
       <c r="J3">
-        <v>6.045898037485181</v>
+        <v>9.632950141144429</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.989790923673213</v>
+        <v>12.10803170345066</v>
       </c>
       <c r="M3">
-        <v>12.96364803089464</v>
+        <v>20.03019113898947</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.10317367365167</v>
+        <v>22.84119477541338</v>
       </c>
       <c r="C4">
-        <v>13.61403577630101</v>
+        <v>10.98399651579488</v>
       </c>
       <c r="D4">
-        <v>2.586417776337967</v>
+        <v>3.722577827539784</v>
       </c>
       <c r="E4">
-        <v>6.003144213676006</v>
+        <v>9.502287124511396</v>
       </c>
       <c r="F4">
-        <v>43.0550415066806</v>
+        <v>55.02314259088069</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>29.37086211683529</v>
+        <v>38.96752281961452</v>
       </c>
       <c r="J4">
-        <v>6.062655585461624</v>
+        <v>9.637402168283172</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.954703202505527</v>
+        <v>12.12149539988678</v>
       </c>
       <c r="M4">
-        <v>12.68579227057027</v>
+        <v>20.02737034863743</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.7748803454212</v>
+        <v>22.79626530066256</v>
       </c>
       <c r="C5">
-        <v>13.31316108893954</v>
+        <v>10.90294522310036</v>
       </c>
       <c r="D5">
-        <v>2.567466528988478</v>
+        <v>3.711157926610346</v>
       </c>
       <c r="E5">
-        <v>5.990111445335542</v>
+        <v>9.499316276164311</v>
       </c>
       <c r="F5">
-        <v>42.75534949138078</v>
+        <v>54.99704266630791</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>29.24703229435099</v>
+        <v>38.96413604877585</v>
       </c>
       <c r="J5">
-        <v>6.06958190592684</v>
+        <v>9.639269427259176</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.941278919627127</v>
+        <v>12.12740444659023</v>
       </c>
       <c r="M5">
-        <v>12.5732066157647</v>
+        <v>20.02727080368228</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.72003706006801</v>
+        <v>22.78890068905012</v>
       </c>
       <c r="C6">
-        <v>13.26269170219243</v>
+        <v>10.88948964561648</v>
       </c>
       <c r="D6">
-        <v>2.564352196783153</v>
+        <v>3.709252315909858</v>
       </c>
       <c r="E6">
-        <v>5.987949276147178</v>
+        <v>9.498820602516366</v>
       </c>
       <c r="F6">
-        <v>42.70590777900373</v>
+        <v>54.99287665089449</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>29.22673503005619</v>
+        <v>38.96367511073037</v>
       </c>
       <c r="J6">
-        <v>6.070738021067619</v>
+        <v>9.639582690907275</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.939102130635145</v>
+        <v>12.12841116151964</v>
       </c>
       <c r="M6">
-        <v>12.55455447806733</v>
+        <v>20.02731774869769</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.09876855600442</v>
+        <v>22.84058244201054</v>
       </c>
       <c r="C7">
-        <v>13.61001215966897</v>
+        <v>10.98290332851927</v>
       </c>
       <c r="D7">
-        <v>2.586159998934945</v>
+        <v>3.722424443200116</v>
       </c>
       <c r="E7">
-        <v>6.002968309945025</v>
+        <v>9.502247217073609</v>
       </c>
       <c r="F7">
-        <v>43.0509782199604</v>
+        <v>55.02277934899333</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>29.36917428835468</v>
+        <v>38.96747034289723</v>
       </c>
       <c r="J7">
-        <v>6.062748596198844</v>
+        <v>9.63742713591158</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.954518640670211</v>
+        <v>12.12157338050921</v>
       </c>
       <c r="M7">
-        <v>12.68427112816152</v>
+        <v>20.0273647521922</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.71998577219408</v>
+        <v>23.08224927401326</v>
       </c>
       <c r="C8">
-        <v>15.06936699556484</v>
+        <v>11.39452909974629</v>
       </c>
       <c r="D8">
-        <v>2.777379384823333</v>
+        <v>3.77917010917876</v>
       </c>
       <c r="E8">
-        <v>6.069647269856655</v>
+        <v>9.517025948582843</v>
       </c>
       <c r="F8">
-        <v>44.62001835948845</v>
+        <v>55.17908666122197</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>30.03703616681414</v>
+        <v>38.99897865775903</v>
       </c>
       <c r="J8">
-        <v>6.028337694305266</v>
+        <v>9.628380236185247</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.030269233629634</v>
+        <v>12.09510823779843</v>
       </c>
       <c r="M8">
-        <v>13.26199657317411</v>
+        <v>20.0367834340781</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.70664909642031</v>
+        <v>23.60166931332714</v>
       </c>
       <c r="C9">
-        <v>17.67650649982409</v>
+        <v>12.19052311084924</v>
       </c>
       <c r="D9">
-        <v>3.210478777087326</v>
+        <v>3.88528679116595</v>
       </c>
       <c r="E9">
-        <v>6.203225942339355</v>
+        <v>9.544795592379595</v>
       </c>
       <c r="F9">
-        <v>47.86045153007998</v>
+        <v>55.57251317239209</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>31.49637308574092</v>
+        <v>39.113919785215</v>
       </c>
       <c r="J9">
-        <v>5.963596735285464</v>
+        <v>9.612300863427494</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.207735819955448</v>
+        <v>12.05652508193661</v>
       </c>
       <c r="M9">
-        <v>14.40685920730922</v>
+        <v>20.0881759483127</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.87393381781223</v>
+        <v>24.00776550211862</v>
       </c>
       <c r="C10">
-        <v>19.44687635468748</v>
+        <v>12.76112083059044</v>
       </c>
       <c r="D10">
-        <v>3.514642755843737</v>
+        <v>3.959932998069328</v>
       </c>
       <c r="E10">
-        <v>6.304614219692681</v>
+        <v>9.564478105054368</v>
       </c>
       <c r="F10">
-        <v>50.34183664860696</v>
+        <v>55.91379024267841</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>32.66845199864116</v>
+        <v>39.23080006627891</v>
       </c>
       <c r="J10">
-        <v>5.917387673770703</v>
+        <v>9.601490567596414</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.356937541882269</v>
+        <v>12.03628165082906</v>
       </c>
       <c r="M10">
-        <v>15.25072043783735</v>
+        <v>20.14579597212312</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.87057677564909</v>
+        <v>24.197089749426</v>
       </c>
       <c r="C11">
-        <v>20.22343937449452</v>
+        <v>13.01622907358608</v>
       </c>
       <c r="D11">
-        <v>3.650622675287411</v>
+        <v>3.993136144497622</v>
       </c>
       <c r="E11">
-        <v>6.351848637161178</v>
+        <v>9.573279939766051</v>
       </c>
       <c r="F11">
-        <v>51.49385483382451</v>
+        <v>56.08017240740767</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>33.22559747692788</v>
+        <v>39.29100081743056</v>
       </c>
       <c r="J11">
-        <v>5.896582685166686</v>
+        <v>9.596788444410015</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.429194924531648</v>
+        <v>12.02882844033613</v>
       </c>
       <c r="M11">
-        <v>15.63472418805416</v>
+        <v>20.17626483313726</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.2428638665793</v>
+        <v>24.26937839115243</v>
       </c>
       <c r="C12">
-        <v>20.51362293268331</v>
+        <v>13.11208809076407</v>
       </c>
       <c r="D12">
-        <v>3.701838430292909</v>
+        <v>4.005598000437521</v>
       </c>
       <c r="E12">
-        <v>6.369934969008771</v>
+        <v>9.576591426373872</v>
       </c>
       <c r="F12">
-        <v>51.93363603504655</v>
+        <v>56.14475551287068</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>33.44024179705799</v>
+        <v>39.31480525104384</v>
       </c>
       <c r="J12">
-        <v>5.888728210870788</v>
+        <v>9.595038711626696</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.457215686023081</v>
+        <v>12.02625817527583</v>
       </c>
       <c r="M12">
-        <v>15.78014955231867</v>
+        <v>20.18840892065321</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.16290864376715</v>
+        <v>24.25378427610168</v>
       </c>
       <c r="C13">
-        <v>20.45129500775823</v>
+        <v>13.09147781853349</v>
       </c>
       <c r="D13">
-        <v>3.690819340016915</v>
+        <v>4.002919121565211</v>
       </c>
       <c r="E13">
-        <v>6.366030174008136</v>
+        <v>9.575879194047051</v>
       </c>
       <c r="F13">
-        <v>51.83875985722521</v>
+        <v>56.13077660802407</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>33.3938473433339</v>
+        <v>39.30963378653603</v>
       </c>
       <c r="J13">
-        <v>5.890418869635354</v>
+        <v>9.595414177547074</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.451151136454199</v>
+        <v>12.02680052155135</v>
       </c>
       <c r="M13">
-        <v>15.74882887327897</v>
+        <v>20.18576661539479</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.90130615597831</v>
+        <v>24.20302541182297</v>
       </c>
       <c r="C14">
-        <v>20.24738920319366</v>
+        <v>13.02413094271541</v>
       </c>
       <c r="D14">
-        <v>3.654841356028509</v>
+        <v>3.994163639819009</v>
       </c>
       <c r="E14">
-        <v>6.35333235913359</v>
+        <v>9.573552808727669</v>
       </c>
       <c r="F14">
-        <v>51.52996355787594</v>
+        <v>56.08545421861058</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>33.24318153004914</v>
+        <v>39.29293904938036</v>
       </c>
       <c r="J14">
-        <v>5.895936056743658</v>
+        <v>9.59664387514283</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.431486837335785</v>
+        <v>12.02861193272631</v>
       </c>
       <c r="M14">
-        <v>15.6466881219285</v>
+        <v>20.17725182201433</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.74040808704071</v>
+        <v>24.17200979640076</v>
       </c>
       <c r="C15">
-        <v>20.12199337671219</v>
+        <v>12.98277910740366</v>
       </c>
       <c r="D15">
-        <v>3.632769899721136</v>
+        <v>3.988786050405951</v>
       </c>
       <c r="E15">
-        <v>6.345581868849568</v>
+        <v>9.572125028191643</v>
       </c>
       <c r="F15">
-        <v>51.3412849211869</v>
+        <v>56.05789769130686</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>33.15137892526307</v>
+        <v>39.28284415740836</v>
       </c>
       <c r="J15">
-        <v>5.899318385115442</v>
+        <v>9.5974011152342</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.41952854013874</v>
+        <v>12.02975429450697</v>
       </c>
       <c r="M15">
-        <v>15.58412576803743</v>
+        <v>20.17211502107256</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.80807053267083</v>
+        <v>23.99547958540363</v>
       </c>
       <c r="C16">
-        <v>19.39556793396227</v>
+        <v>12.7443500937433</v>
       </c>
       <c r="D16">
-        <v>3.505713545741492</v>
+        <v>3.957747662508102</v>
       </c>
       <c r="E16">
-        <v>6.301552983468387</v>
+        <v>9.56389985105025</v>
       </c>
       <c r="F16">
-        <v>50.26703173230772</v>
+        <v>55.9031388849148</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>32.63254129853414</v>
+        <v>39.22700702818606</v>
       </c>
       <c r="J16">
-        <v>5.918751079847116</v>
+        <v>9.601802188003425</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.352305877533366</v>
+        <v>12.03680403421918</v>
       </c>
       <c r="M16">
-        <v>15.22562619037741</v>
+        <v>20.14388992814098</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.22672635675558</v>
+        <v>23.88831391870139</v>
       </c>
       <c r="C17">
-        <v>18.94272764286107</v>
+        <v>12.59686267898442</v>
       </c>
       <c r="D17">
-        <v>3.427201181894474</v>
+        <v>3.938511347709395</v>
       </c>
       <c r="E17">
-        <v>6.274854020181647</v>
+        <v>9.558815264698691</v>
       </c>
       <c r="F17">
-        <v>49.61407345209079</v>
+        <v>55.81103520902285</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>32.32053274202467</v>
+        <v>39.19455156808121</v>
       </c>
       <c r="J17">
-        <v>5.930722842636118</v>
+        <v>9.604557211272649</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.312208592857948</v>
+        <v>12.04157824250376</v>
       </c>
       <c r="M17">
-        <v>15.0057167484642</v>
+        <v>20.12766105319313</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.88883057448113</v>
+        <v>23.82711090997115</v>
       </c>
       <c r="C18">
-        <v>18.67953909511873</v>
+        <v>12.51161766420608</v>
       </c>
       <c r="D18">
-        <v>3.381813793503895</v>
+        <v>3.927376355883014</v>
       </c>
       <c r="E18">
-        <v>6.259599481043921</v>
+        <v>9.555876437947717</v>
       </c>
       <c r="F18">
-        <v>49.24067831862271</v>
+        <v>55.75910909734066</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>32.14331379842882</v>
+        <v>39.1765461350855</v>
       </c>
       <c r="J18">
-        <v>5.937629457310266</v>
+        <v>9.606162122912108</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.28955652219361</v>
+        <v>12.04448951282469</v>
       </c>
       <c r="M18">
-        <v>14.87924126271772</v>
+        <v>20.11872774095454</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.77381355841695</v>
+        <v>23.80646542549495</v>
       </c>
       <c r="C19">
-        <v>18.58995240856159</v>
+        <v>12.48268734834907</v>
       </c>
       <c r="D19">
-        <v>3.36640520801023</v>
+        <v>3.923594178510952</v>
       </c>
       <c r="E19">
-        <v>6.254450959804416</v>
+        <v>9.55487893660813</v>
       </c>
       <c r="F19">
-        <v>49.11462111166152</v>
+        <v>55.74170872475418</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>32.08368917361665</v>
+        <v>39.17056360546833</v>
       </c>
       <c r="J19">
-        <v>5.939971690690841</v>
+        <v>9.606709008231482</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.281956695811152</v>
+        <v>12.04550361456421</v>
       </c>
       <c r="M19">
-        <v>14.83642134582981</v>
+        <v>20.11577213814371</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.28897439464403</v>
+        <v>23.89967724139782</v>
       </c>
       <c r="C20">
-        <v>18.99121373451027</v>
+        <v>12.61260661029006</v>
       </c>
       <c r="D20">
-        <v>3.435582229306219</v>
+        <v>3.940566433382981</v>
       </c>
       <c r="E20">
-        <v>6.277685345196413</v>
+        <v>9.559358006468651</v>
       </c>
       <c r="F20">
-        <v>49.68335632374633</v>
+        <v>55.82073134494212</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>32.35351327225327</v>
+        <v>39.19793800475956</v>
       </c>
       <c r="J20">
-        <v>5.929446327175238</v>
+        <v>9.604261834851206</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.316434309252962</v>
+        <v>12.041052917279</v>
       </c>
       <c r="M20">
-        <v>15.02912552946434</v>
+        <v>20.12934717304811</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.97828199467337</v>
+        <v>24.21791886977616</v>
       </c>
       <c r="C21">
-        <v>20.30738448089871</v>
+        <v>13.04393334970538</v>
       </c>
       <c r="D21">
-        <v>3.665415892909451</v>
+        <v>3.996738385848682</v>
       </c>
       <c r="E21">
-        <v>6.357056248628018</v>
+        <v>9.574236708040058</v>
       </c>
       <c r="F21">
-        <v>51.62056650001118</v>
+        <v>56.09872387913176</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>33.28733429952488</v>
+        <v>39.29781538123501</v>
       </c>
       <c r="J21">
-        <v>5.894314936222071</v>
+        <v>9.596281846707354</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.437244603888963</v>
+        <v>12.02807303836185</v>
       </c>
       <c r="M21">
-        <v>15.6766889295995</v>
+        <v>20.17973642210976</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.05264274739412</v>
+        <v>24.42934997005899</v>
       </c>
       <c r="C22">
-        <v>21.1450840352615</v>
+        <v>13.32144672920978</v>
       </c>
       <c r="D22">
-        <v>3.814050737852118</v>
+        <v>4.03279900477269</v>
       </c>
       <c r="E22">
-        <v>6.410116727644994</v>
+        <v>9.583835150586339</v>
       </c>
       <c r="F22">
-        <v>52.90742130718091</v>
+        <v>56.28959218729899</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>33.91913844487955</v>
+        <v>39.36896247380623</v>
       </c>
       <c r="J22">
-        <v>5.871490125416832</v>
+        <v>9.591246272537898</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.520055467746513</v>
+        <v>12.02105919641518</v>
       </c>
       <c r="M22">
-        <v>16.0999948623003</v>
+        <v>20.21619885441327</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.48186353035533</v>
+        <v>24.31621165351953</v>
       </c>
       <c r="C23">
-        <v>20.69995239078008</v>
+        <v>13.17376554721121</v>
       </c>
       <c r="D23">
-        <v>3.73484070490243</v>
+        <v>4.013613327755354</v>
       </c>
       <c r="E23">
-        <v>6.381673949686445</v>
+        <v>9.578723693156501</v>
       </c>
       <c r="F23">
-        <v>52.21861195294583</v>
+        <v>56.18689011804467</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>33.57988188204543</v>
+        <v>39.33045407238122</v>
       </c>
       <c r="J23">
-        <v>5.883662299130861</v>
+        <v>9.593917444844811</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.475494648211497</v>
+        <v>12.02466830684019</v>
       </c>
       <c r="M23">
-        <v>15.87405494110236</v>
+        <v>20.19641729361957</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.26084351529614</v>
+        <v>23.89453860763723</v>
       </c>
       <c r="C24">
-        <v>18.96930205170865</v>
+        <v>12.60549018052601</v>
       </c>
       <c r="D24">
-        <v>3.431793940016153</v>
+        <v>3.939637564948931</v>
       </c>
       <c r="E24">
-        <v>6.276405010008578</v>
+        <v>9.55911268161889</v>
       </c>
       <c r="F24">
-        <v>49.65202732384451</v>
+        <v>55.81634452590284</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>32.33859606602329</v>
+        <v>39.19640496054024</v>
       </c>
       <c r="J24">
-        <v>5.930023364879652</v>
+        <v>9.604395309073279</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.314522617789224</v>
+        <v>12.04128989813176</v>
       </c>
       <c r="M24">
-        <v>15.01854256386448</v>
+        <v>20.12858364160923</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.91999489318581</v>
+        <v>23.45660906970396</v>
       </c>
       <c r="C25">
-        <v>16.99750468301626</v>
+        <v>11.97718198357478</v>
       </c>
       <c r="D25">
-        <v>3.095970417099584</v>
+        <v>3.857149873532544</v>
       </c>
       <c r="E25">
-        <v>6.166641609086711</v>
+        <v>9.537410925461575</v>
       </c>
       <c r="F25">
-        <v>46.96638675090406</v>
+        <v>55.45684425001159</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>31.08471660602389</v>
+        <v>39.07712773733518</v>
       </c>
       <c r="J25">
-        <v>5.980848365489591</v>
+        <v>9.616473885024014</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.156513123885231</v>
+        <v>12.06553863070556</v>
       </c>
       <c r="M25">
-        <v>14.09641531681732</v>
+        <v>20.07076742212642</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_98/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_98/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.15092491234345</v>
+        <v>21.14654293840695</v>
       </c>
       <c r="C2">
-        <v>11.50559536387624</v>
+        <v>15.4472176828956</v>
       </c>
       <c r="D2">
-        <v>3.794202529467003</v>
+        <v>2.839037149614482</v>
       </c>
       <c r="E2">
-        <v>9.520947567715242</v>
+        <v>6.087854873919335</v>
       </c>
       <c r="F2">
-        <v>55.22734134379357</v>
+        <v>45.05627174287855</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>39.01110950967163</v>
+        <v>30.22782491948111</v>
       </c>
       <c r="J2">
-        <v>9.626041788798206</v>
+        <v>6.019210091341423</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.08883899679955</v>
+        <v>7.052709619775527</v>
       </c>
       <c r="M2">
-        <v>20.04156972374729</v>
+        <v>13.41955496891199</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.95528901744763</v>
+        <v>19.89499340497597</v>
       </c>
       <c r="C3">
-        <v>11.18283497767065</v>
+        <v>14.33179110813611</v>
       </c>
       <c r="D3">
-        <v>3.750218158558777</v>
+        <v>2.658134535738714</v>
       </c>
       <c r="E3">
-        <v>9.509481565454852</v>
+        <v>6.035224552138248</v>
       </c>
       <c r="F3">
-        <v>55.09400305996552</v>
+        <v>43.80346342979494</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>38.9799580843771</v>
+        <v>29.68562889675441</v>
       </c>
       <c r="J3">
-        <v>9.632950141144429</v>
+        <v>6.045898037485182</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.10803170345066</v>
+        <v>6.98979092367316</v>
       </c>
       <c r="M3">
-        <v>20.03019113898947</v>
+        <v>12.96364803089459</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.84119477541338</v>
+        <v>19.10317367365167</v>
       </c>
       <c r="C4">
-        <v>10.98399651579488</v>
+        <v>13.614035776301</v>
       </c>
       <c r="D4">
-        <v>3.722577827539784</v>
+        <v>2.586417776337973</v>
       </c>
       <c r="E4">
-        <v>9.502287124511396</v>
+        <v>6.003144213676008</v>
       </c>
       <c r="F4">
-        <v>55.02314259088069</v>
+        <v>43.0550415066809</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>38.96752281961452</v>
+        <v>29.37086211683547</v>
       </c>
       <c r="J4">
-        <v>9.637402168283172</v>
+        <v>6.062655585461627</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.12149539988678</v>
+        <v>6.95470320250555</v>
       </c>
       <c r="M4">
-        <v>20.02737034863743</v>
+        <v>12.68579227057029</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.79626530066256</v>
+        <v>18.77488034542108</v>
       </c>
       <c r="C5">
-        <v>10.90294522310036</v>
+        <v>13.31316108893953</v>
       </c>
       <c r="D5">
-        <v>3.711157926610346</v>
+        <v>2.567466528988529</v>
       </c>
       <c r="E5">
-        <v>9.499316276164311</v>
+        <v>5.990111445335409</v>
       </c>
       <c r="F5">
-        <v>54.99704266630791</v>
+        <v>42.75534949138059</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>38.96413604877585</v>
+        <v>29.24703229435077</v>
       </c>
       <c r="J5">
-        <v>9.639269427259176</v>
+        <v>6.069581905926805</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.12740444659023</v>
+        <v>6.941278919627026</v>
       </c>
       <c r="M5">
-        <v>20.02727080368228</v>
+        <v>12.57320661576455</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.78890068905012</v>
+        <v>18.72003706006799</v>
       </c>
       <c r="C6">
-        <v>10.88948964561648</v>
+        <v>13.26269170219246</v>
       </c>
       <c r="D6">
-        <v>3.709252315909858</v>
+        <v>2.564352196783069</v>
       </c>
       <c r="E6">
-        <v>9.498820602516366</v>
+        <v>5.987949276147244</v>
       </c>
       <c r="F6">
-        <v>54.99287665089449</v>
+        <v>42.70590777900375</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>38.96367511073037</v>
+        <v>29.22673503005609</v>
       </c>
       <c r="J6">
-        <v>9.639582690907275</v>
+        <v>6.070738021067585</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.12841116151964</v>
+        <v>6.939102130635227</v>
       </c>
       <c r="M6">
-        <v>20.02731774869769</v>
+        <v>12.55455447806733</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.84058244201054</v>
+        <v>19.09876855600442</v>
       </c>
       <c r="C7">
-        <v>10.98290332851927</v>
+        <v>13.61001215966892</v>
       </c>
       <c r="D7">
-        <v>3.722424443200116</v>
+        <v>2.586159998934858</v>
       </c>
       <c r="E7">
-        <v>9.502247217073609</v>
+        <v>6.002968309945094</v>
       </c>
       <c r="F7">
-        <v>55.02277934899333</v>
+        <v>43.05097821996048</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>38.96747034289723</v>
+        <v>29.36917428835475</v>
       </c>
       <c r="J7">
-        <v>9.63742713591158</v>
+        <v>6.062748596198811</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.12157338050921</v>
+        <v>6.954518640670222</v>
       </c>
       <c r="M7">
-        <v>20.0273647521922</v>
+        <v>12.68427112816148</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.08224927401326</v>
+        <v>20.71998577219404</v>
       </c>
       <c r="C8">
-        <v>11.39452909974629</v>
+        <v>15.06936699556489</v>
       </c>
       <c r="D8">
-        <v>3.77917010917876</v>
+        <v>2.777379384823282</v>
       </c>
       <c r="E8">
-        <v>9.517025948582843</v>
+        <v>6.069647269856722</v>
       </c>
       <c r="F8">
-        <v>55.17908666122197</v>
+        <v>44.62001835948836</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>38.99897865775903</v>
+        <v>30.03703616681414</v>
       </c>
       <c r="J8">
-        <v>9.628380236185247</v>
+        <v>6.028337694305333</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.09510823779843</v>
+        <v>7.030269233629606</v>
       </c>
       <c r="M8">
-        <v>20.0367834340781</v>
+        <v>13.26199657317406</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.60166931332714</v>
+        <v>23.70664909642032</v>
       </c>
       <c r="C9">
-        <v>12.19052311084924</v>
+        <v>17.67650649982427</v>
       </c>
       <c r="D9">
-        <v>3.88528679116595</v>
+        <v>3.210478777087324</v>
       </c>
       <c r="E9">
-        <v>9.544795592379595</v>
+        <v>6.203225942339491</v>
       </c>
       <c r="F9">
-        <v>55.57251317239209</v>
+        <v>47.86045153008003</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>39.113919785215</v>
+        <v>31.49637308574101</v>
       </c>
       <c r="J9">
-        <v>9.612300863427494</v>
+        <v>5.963596735285497</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.05652508193661</v>
+        <v>7.207735819955416</v>
       </c>
       <c r="M9">
-        <v>20.0881759483127</v>
+        <v>14.40685920730922</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.00776550211862</v>
+        <v>25.87393381781228</v>
       </c>
       <c r="C10">
-        <v>12.76112083059044</v>
+        <v>19.44687635468748</v>
       </c>
       <c r="D10">
-        <v>3.959932998069328</v>
+        <v>3.514642755843737</v>
       </c>
       <c r="E10">
-        <v>9.564478105054368</v>
+        <v>6.304614219692745</v>
       </c>
       <c r="F10">
-        <v>55.91379024267841</v>
+        <v>50.34183664860703</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>39.23080006627891</v>
+        <v>32.66845199864123</v>
       </c>
       <c r="J10">
-        <v>9.601490567596414</v>
+        <v>5.91738767377081</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.03628165082906</v>
+        <v>7.356937541882249</v>
       </c>
       <c r="M10">
-        <v>20.14579597212312</v>
+        <v>15.25072043783732</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.197089749426</v>
+        <v>26.87057677564916</v>
       </c>
       <c r="C11">
-        <v>13.01622907358608</v>
+        <v>20.22343937449454</v>
       </c>
       <c r="D11">
-        <v>3.993136144497622</v>
+        <v>3.650622675287377</v>
       </c>
       <c r="E11">
-        <v>9.573279939766051</v>
+        <v>6.351848637161176</v>
       </c>
       <c r="F11">
-        <v>56.08017240740767</v>
+        <v>51.49385483382473</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>39.29100081743056</v>
+        <v>33.225597476928</v>
       </c>
       <c r="J11">
-        <v>9.596788444410015</v>
+        <v>5.896582685166758</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.02882844033613</v>
+        <v>7.429194924531638</v>
       </c>
       <c r="M11">
-        <v>20.17626483313726</v>
+        <v>15.63472418805413</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.26937839115243</v>
+        <v>27.24286386657925</v>
       </c>
       <c r="C12">
-        <v>13.11208809076407</v>
+        <v>20.51362293268313</v>
       </c>
       <c r="D12">
-        <v>4.005598000437521</v>
+        <v>3.701838430292829</v>
       </c>
       <c r="E12">
-        <v>9.576591426373872</v>
+        <v>6.369934969008639</v>
       </c>
       <c r="F12">
-        <v>56.14475551287068</v>
+        <v>51.93363603504676</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>39.31480525104384</v>
+        <v>33.44024179705814</v>
       </c>
       <c r="J12">
-        <v>9.595038711626696</v>
+        <v>5.888728210870693</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.02625817527583</v>
+        <v>7.457215686023079</v>
       </c>
       <c r="M12">
-        <v>20.18840892065321</v>
+        <v>15.78014955231868</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.25378427610168</v>
+        <v>27.16290864376716</v>
       </c>
       <c r="C13">
-        <v>13.09147781853349</v>
+        <v>20.45129500775827</v>
       </c>
       <c r="D13">
-        <v>4.002919121565211</v>
+        <v>3.690819340016694</v>
       </c>
       <c r="E13">
-        <v>9.575879194047051</v>
+        <v>6.366030174008003</v>
       </c>
       <c r="F13">
-        <v>56.13077660802407</v>
+        <v>51.83875985722525</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>39.30963378653603</v>
+        <v>33.3938473433339</v>
       </c>
       <c r="J13">
-        <v>9.595414177547074</v>
+        <v>5.890418869635352</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.02680052155135</v>
+        <v>7.451151136454133</v>
       </c>
       <c r="M13">
-        <v>20.18576661539479</v>
+        <v>15.74882887327895</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.20302541182297</v>
+        <v>26.90130615597839</v>
       </c>
       <c r="C14">
-        <v>13.02413094271541</v>
+        <v>20.24738920319362</v>
       </c>
       <c r="D14">
-        <v>3.994163639819009</v>
+        <v>3.654841356028637</v>
       </c>
       <c r="E14">
-        <v>9.573552808727669</v>
+        <v>6.353332359133725</v>
       </c>
       <c r="F14">
-        <v>56.08545421861058</v>
+        <v>51.52996355787599</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>39.29293904938036</v>
+        <v>33.24318153004916</v>
       </c>
       <c r="J14">
-        <v>9.59664387514283</v>
+        <v>5.89593605674369</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.02861193272631</v>
+        <v>7.431486837335812</v>
       </c>
       <c r="M14">
-        <v>20.17725182201433</v>
+        <v>15.6466881219285</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.17200979640076</v>
+        <v>26.74040808704066</v>
       </c>
       <c r="C15">
-        <v>12.98277910740366</v>
+        <v>20.12199337671208</v>
       </c>
       <c r="D15">
-        <v>3.988786050405951</v>
+        <v>3.632769899721064</v>
       </c>
       <c r="E15">
-        <v>9.572125028191643</v>
+        <v>6.345581868849702</v>
       </c>
       <c r="F15">
-        <v>56.05789769130686</v>
+        <v>51.34128492118678</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>39.28284415740836</v>
+        <v>33.15137892526294</v>
       </c>
       <c r="J15">
-        <v>9.5974011152342</v>
+        <v>5.899318385115432</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.02975429450697</v>
+        <v>7.419528540138814</v>
       </c>
       <c r="M15">
-        <v>20.17211502107256</v>
+        <v>15.58412576803746</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.99547958540363</v>
+        <v>25.80807053267075</v>
       </c>
       <c r="C16">
-        <v>12.7443500937433</v>
+        <v>19.39556793396244</v>
       </c>
       <c r="D16">
-        <v>3.957747662508102</v>
+        <v>3.50571354574148</v>
       </c>
       <c r="E16">
-        <v>9.56389985105025</v>
+        <v>6.301552983468383</v>
       </c>
       <c r="F16">
-        <v>55.9031388849148</v>
+        <v>50.26703173230773</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>39.22700702818606</v>
+        <v>32.63254129853424</v>
       </c>
       <c r="J16">
-        <v>9.601802188003425</v>
+        <v>5.918751079847215</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.03680403421918</v>
+        <v>7.352305877533325</v>
       </c>
       <c r="M16">
-        <v>20.14388992814098</v>
+        <v>15.22562619037744</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.88831391870139</v>
+        <v>25.22672635675556</v>
       </c>
       <c r="C17">
-        <v>12.59686267898442</v>
+        <v>18.94272764286103</v>
       </c>
       <c r="D17">
-        <v>3.938511347709395</v>
+        <v>3.42720118189467</v>
       </c>
       <c r="E17">
-        <v>9.558815264698691</v>
+        <v>6.274854020181647</v>
       </c>
       <c r="F17">
-        <v>55.81103520902285</v>
+        <v>49.61407345209091</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>39.19455156808121</v>
+        <v>32.32053274202476</v>
       </c>
       <c r="J17">
-        <v>9.604557211272649</v>
+        <v>5.930722842636118</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.04157824250376</v>
+        <v>7.312208592857977</v>
       </c>
       <c r="M17">
-        <v>20.12766105319313</v>
+        <v>15.00571674846422</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.82711090997115</v>
+        <v>24.88883057448112</v>
       </c>
       <c r="C18">
-        <v>12.51161766420608</v>
+        <v>18.67953909511883</v>
       </c>
       <c r="D18">
-        <v>3.927376355883014</v>
+        <v>3.381813793503977</v>
       </c>
       <c r="E18">
-        <v>9.555876437947717</v>
+        <v>6.259599481043916</v>
       </c>
       <c r="F18">
-        <v>55.75910909734066</v>
+        <v>49.24067831862299</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>39.1765461350855</v>
+        <v>32.14331379842903</v>
       </c>
       <c r="J18">
-        <v>9.606162122912108</v>
+        <v>5.937629457310304</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.04448951282469</v>
+        <v>7.289556522193573</v>
       </c>
       <c r="M18">
-        <v>20.11872774095454</v>
+        <v>14.87924126271772</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.80646542549495</v>
+        <v>24.77381355841691</v>
       </c>
       <c r="C19">
-        <v>12.48268734834907</v>
+        <v>18.58995240856158</v>
       </c>
       <c r="D19">
-        <v>3.923594178510952</v>
+        <v>3.366405208010255</v>
       </c>
       <c r="E19">
-        <v>9.55487893660813</v>
+        <v>6.254450959804414</v>
       </c>
       <c r="F19">
-        <v>55.74170872475418</v>
+        <v>49.11462111166169</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>39.17056360546833</v>
+        <v>32.08368917361674</v>
       </c>
       <c r="J19">
-        <v>9.606709008231482</v>
+        <v>5.939971690690844</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.04550361456421</v>
+        <v>7.281956695811137</v>
       </c>
       <c r="M19">
-        <v>20.11577213814371</v>
+        <v>14.83642134582982</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.89967724139782</v>
+        <v>25.28897439464401</v>
       </c>
       <c r="C20">
-        <v>12.61260661029006</v>
+        <v>18.99121373451027</v>
       </c>
       <c r="D20">
-        <v>3.940566433382981</v>
+        <v>3.435582229306358</v>
       </c>
       <c r="E20">
-        <v>9.559358006468651</v>
+        <v>6.277685345196684</v>
       </c>
       <c r="F20">
-        <v>55.82073134494212</v>
+        <v>49.68335632374638</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>39.19793800475956</v>
+        <v>32.35351327225332</v>
       </c>
       <c r="J20">
-        <v>9.604261834851206</v>
+        <v>5.929446327175334</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.041052917279</v>
+        <v>7.316434309253056</v>
       </c>
       <c r="M20">
-        <v>20.12934717304811</v>
+        <v>15.02912552946439</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.21791886977616</v>
+        <v>26.97828199467325</v>
       </c>
       <c r="C21">
-        <v>13.04393334970538</v>
+        <v>20.30738448089868</v>
       </c>
       <c r="D21">
-        <v>3.996738385848682</v>
+        <v>3.665415892909463</v>
       </c>
       <c r="E21">
-        <v>9.574236708040058</v>
+        <v>6.357056248627884</v>
       </c>
       <c r="F21">
-        <v>56.09872387913176</v>
+        <v>51.62056650001124</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>39.29781538123501</v>
+        <v>33.28733429952497</v>
       </c>
       <c r="J21">
-        <v>9.596281846707354</v>
+        <v>5.894314936222073</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.02807303836185</v>
+        <v>7.437244603888961</v>
       </c>
       <c r="M21">
-        <v>20.17973642210976</v>
+        <v>15.67668892959954</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.42934997005899</v>
+        <v>28.05264274739418</v>
       </c>
       <c r="C22">
-        <v>13.32144672920978</v>
+        <v>21.14508403526161</v>
       </c>
       <c r="D22">
-        <v>4.03279900477269</v>
+        <v>3.814050737852168</v>
       </c>
       <c r="E22">
-        <v>9.583835150586339</v>
+        <v>6.410116727645003</v>
       </c>
       <c r="F22">
-        <v>56.28959218729899</v>
+        <v>52.90742130718093</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>39.36896247380623</v>
+        <v>33.91913844487956</v>
       </c>
       <c r="J22">
-        <v>9.591246272537898</v>
+        <v>5.871490125416867</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.02105919641518</v>
+        <v>7.520055467746466</v>
       </c>
       <c r="M22">
-        <v>20.21619885441327</v>
+        <v>16.09999486230025</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.31621165351953</v>
+        <v>27.48186353035527</v>
       </c>
       <c r="C23">
-        <v>13.17376554721121</v>
+        <v>20.69995239077996</v>
       </c>
       <c r="D23">
-        <v>4.013613327755354</v>
+        <v>3.734840704902221</v>
       </c>
       <c r="E23">
-        <v>9.578723693156501</v>
+        <v>6.381673949686381</v>
       </c>
       <c r="F23">
-        <v>56.18689011804467</v>
+        <v>52.21861195294603</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>39.33045407238122</v>
+        <v>33.57988188204563</v>
       </c>
       <c r="J23">
-        <v>9.593917444844811</v>
+        <v>5.883662299130958</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.02466830684019</v>
+        <v>7.475494648211485</v>
       </c>
       <c r="M23">
-        <v>20.19641729361957</v>
+        <v>15.87405494110238</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.89453860763723</v>
+        <v>25.26084351529616</v>
       </c>
       <c r="C24">
-        <v>12.60549018052601</v>
+        <v>18.96930205170861</v>
       </c>
       <c r="D24">
-        <v>3.939637564948931</v>
+        <v>3.431793940016014</v>
       </c>
       <c r="E24">
-        <v>9.55911268161889</v>
+        <v>6.276405010008642</v>
       </c>
       <c r="F24">
-        <v>55.81634452590284</v>
+        <v>49.65202732384451</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>39.19640496054024</v>
+        <v>32.33859606602334</v>
       </c>
       <c r="J24">
-        <v>9.604395309073279</v>
+        <v>5.930023364879753</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.04128989813176</v>
+        <v>7.314522617789216</v>
       </c>
       <c r="M24">
-        <v>20.12858364160923</v>
+        <v>15.01854256386449</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.45660906970396</v>
+        <v>22.91999489318583</v>
       </c>
       <c r="C25">
-        <v>11.97718198357478</v>
+        <v>16.99750468301621</v>
       </c>
       <c r="D25">
-        <v>3.857149873532544</v>
+        <v>3.095970417099375</v>
       </c>
       <c r="E25">
-        <v>9.537410925461575</v>
+        <v>6.166641609086645</v>
       </c>
       <c r="F25">
-        <v>55.45684425001159</v>
+        <v>46.96638675090404</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>39.07712773733518</v>
+        <v>31.08471660602389</v>
       </c>
       <c r="J25">
-        <v>9.616473885024014</v>
+        <v>5.980848365489623</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.06553863070556</v>
+        <v>7.156513123885204</v>
       </c>
       <c r="M25">
-        <v>20.07076742212642</v>
+        <v>14.09641531681733</v>
       </c>
       <c r="N25">
         <v>0</v>
